--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,16 +433,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="96" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="72" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="186" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="163" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,6 +494,11 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Данные</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Ссылка</t>
         </is>
       </c>
@@ -500,124 +506,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1603978226</t>
+          <t>898182832</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Кран-букса для Mofem классическая (резина) (аналог) (набор 2 штуки)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/вн PN 25 ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>342</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>352</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>661</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>139 отзывов</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kran-buksa-dlya-mofem-klassicheskaya-rezina-analog-nabor-2-shtuki-1603978226/?at=J8tgWkZW1I7XrXGzhgQMVkNfRZPknnHxzwj9ksZv9jxo</t>
+          <t>925 отзывов</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-vn-pn-25-ruchka-babochka-898182832/?at=LZtlD0O5WcoLx2EgU1LwYP8F4ovyyJFXjyAp6CDZZmg5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1999394833</t>
+          <t>366926001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Кран-букса для смесителя универсальная латунная M18 "квадрат" керамическая (набор из 2-х штук)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Кран шаровой латунный 3/4" дюйма KOER (Чехия) DN20 вн/вн ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>709</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>759</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1391</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>70 отзывов</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kran-buksa-dlya-smesitelya-universalnaya-latunnaya-m18-kvadrat-keramicheskaya-nabor-iz-2-h-shtuk-1999394833/?at=28t02L12Rf1Jvw9MFDV0gmYto4VZwZH8m5606HQ739vK</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>366919413</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Кран шаровой латунный 1/2" дюйма KOER (Чехия) DN15 вн/вн ручка бабочка</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1424</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-1-2-dyuyma-koer-chehiya-dn15-vn-vn-ruchka-babochka-366919413/?at=qQtJygZyzcl6o0LLuBE0O7yurn6qm1iBBgA9mIq8qKxx</t>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-3-4-dyuyma-koer-chehiya-dn20-vn-vn-ruchka-babochka-366926001/?at=VvtznVK1JsjV8B9WSrqmrL7cXmmp7yH59oz1BIQ1PopP</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,17 +433,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="172" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="163" customWidth="1" min="11" max="11"/>
+    <col width="180" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,98 +506,771 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>898182832</t>
+          <t>1959962946</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/вн PN 25 ручка бабочка</t>
+          <t>Кран шаровый для воды 3/4" гайка-штуцер рычаг (5шт)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RTP</t>
+          <t>СТМ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>925 отзывов</t>
+          <t>869 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Официальный магазин RTP</t>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-vn-pn-25-ruchka-babochka-898182832/?at=LZtlD0O5WcoLx2EgU1LwYP8F4ovyyJFXjyAp6CDZZmg5</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-3-4-gayka-shtutser-rychag-5sht-1959962946/?at=XQtkPlN3QFOOL4BUNA60AmuN9n993FxgrWJqh60MN0Y</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>366926001</t>
+          <t>1959797650</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Кран шаровой латунный 3/4" дюйма KOER (Чехия) DN20 вн/вн ручка бабочка</t>
+          <t>Кран шаровый для воды СTM СТАНДАРТ 3/4" водоразборный рычаг (3 шт)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KOER</t>
+          <t>СТМ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1922</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1 544 отзыва</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Сантехника161.рф</t>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-3-4-dyuyma-koer-chehiya-dn20-vn-vn-ruchka-babochka-366926001/?at=VvtznVK1JsjV8B9WSrqmrL7cXmmp7yH59oz1BIQ1PopP</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-stm-standart-3-4-vodorazbornyy-rychag-3-sht-1959797650/?at=gpt41vWn3f6pmPynu0DVOX6UVvMMQ1SnLWxy7iRR8L3v</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1789303180</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Кран шаровой ВР/НР 1/2" бабочка, для газа ZEGOR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ZEGOR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FEOTON</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-vr-nr-1-2-babochka-dlya-gaza-zegor-1789303180/?at=LZtlD0O5Wc2xjQl2HNLvg4pfvLBWGNFA5lnK7ToZj8QK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1715723947</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" ГАЛЛОП, вн-нар, ручка - 2 шт.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Галлоп</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1 700 отзывов</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>MixMART</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-gallop-vn-nar-ruchka-2-sht-1715723947/?at=vQtrnJgo9i87BrZ6IV5ADVDhQkqRm7CjQ6YJltPD9wOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>975487956</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Кран шаровый резьбовой 1/2" м/м из АБС - пластика</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MAK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>413 отзывов</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Бимарт</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-rezbovoy-1-2-m-m-iz-abs-plastika-975487956/?at=jYtZ4zJkrtq2KMlqiMWkEA3s7QNDy5HkGLWzoHlvY049</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2167490099</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Кран шаровой 1/2" ВР-НР VALTEC MINI редуцированный с ручкой-флажком / Латунная запорная арматура МИНИ ДУ 15 для подключения сантехприборов к водопроводу, арт. VT.331.N.04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Valtec</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ПРОгреем</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-1-2-vr-nr-valtec-mini-redutsirovannyy-s-ruchkoy-flazhkom-latunnaya-zapornaya-2167490099/?at=r2t4RyjXqfyYKgMwUo08W67CyA7DLWFEjm5JyfOyK38X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>646644698</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Кран с носиком шаровой (SMS-9006) 1/2''(сплав)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>607 отзывов</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SMS market</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-s-nosikom-sharovoy-sms-9006-1-2-splav-646644698/?at=36tWgjMVkIQmXpBncnnvjjYHDpBJ5WCpKXkOLI8X84Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1410819084</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кран шаровой ROMMER ВР/НР ручка рычаг 1/2 RBV-0002-2210315</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>203 отзыва</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-rommer-vr-nr-ruchka-rychag-1-2-rbv-0002-2210315-1410819084/?at=VvtznVK1JsmgkZ3jSnJLADJTXjw2LEtR1BL9zuP0R60V</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2106901409</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2 латунный с внутренней и наружной резьбой(2шт)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>179 отзывов</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>AV-WATER</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-vnutrenney-i-naruzhnoy-rezboy-2sht-2106901409/?at=z6tOYXBv1cv8lN0wsrzBGpmcmrqVOnFq29gKZcyOZnoq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1319117444</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), ГАЛЛОП, серия "Практик"</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Галлоп</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 849 отзывов</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AZEL</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-gallop-seriya-praktik-1319117444/?at=28t02LGAYTxOABApSmXm73gUwWrV5ncBAAoDEsvoz4Yv</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2106369652</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2 латунный с внутренней и наружной резьбой(2шт) Ручка-рычаг</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>179 отзывов</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AV-WATER</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-vnutrenney-i-naruzhnoy-rezboy-2sht-ruchka-rychag-2106369652/?at=K8tZyQw0otQmMn7EuKzQ3yjtXDJq5ZsgOPvADi8WO6pN</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>898177220</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Шаровый кран 1 дюйм RTP шаровой латунный вн/нар PN 40 ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>128 отзывов</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-dyuym-rtp-sharovoy-latunnyy-vn-nar-pn-40-ruchka-rychag-898177220/?at=A6tGKxoMQcB9yv9ECNV1A8jfw5BlAXtA0PgJXsjBWyrv</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>898187729</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/нар PN 25 ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>932 отзыва</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-nar-pn-25-ruchka-rychag-898187729/?at=nRtrZ4LQEipzovVnhVwRmQniwryXlGHNBBK5mtqrOW9l</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2118807645</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Кран шаровой угловой Bugatti Miami,латунь 1/2"x1/2" (08830001)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9 отзывов</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PROFICLIMATE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-uglovoy-bugatti-miami-latun-1-2-x1-2-08830001-2118807645/?at=J8tgWkzPJu33X47Eu8p8k4PfqAAwR2U2jkX13c2921PV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>366919413</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный 1/2" дюйма KOER (Чехия) DN15 вн/вн ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-1-2-dyuyma-koer-chehiya-dn15-vn-vn-ruchka-babochka-366919413/?at=6WtZ6R9xNt22mYyiQ88kZnsOm0m6NtOQoxL3tl0Zpkv</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -433,17 +433,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="82" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="81" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="36" customWidth="1" min="10" max="10"/>
-    <col width="171" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="86" customWidth="1" min="10" max="10"/>
+    <col width="165" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,89 +506,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>605997966</t>
+          <t>174299737</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Кран шаровый с американкой 3/4", внутренняя-наружная резьба, бабочка KOER KR.227</t>
+          <t>Кран шаровый для воды 1/2", наружная резьба СТМ СТАНДАРТ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KOER</t>
+          <t>СТМ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>384</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>394</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>42 отзыва</t>
+          <t>730 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Сантехника161.рф</t>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>О магазине; О магазине; О магазине</t>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41177746291623</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-s-amerikankoy-3-4-vnutrennyaya-naruzhnaya-rezba-babochka-koer-kr-227-605997966/?at=28t02PWLPf53GxRqIwk0O9RtMQG94BUkopZ5GTgo3Yj9</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-naruzhnaya-rezba-stm-standart-174299737/?at=OgtELzo6JIvR1Z03Hm6MxPlt9kKXZNfjgQAWAckMg9rw</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>898182832</t>
+          <t>1714791213</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/вн PN 25 ручка бабочка</t>
+          <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), DN-15, латунь, Россия</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RTP</t>
+          <t>Галлоп</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>573</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>880</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -598,22 +598,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>927 отзывов</t>
+          <t>1 709 отзывов</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Официальный магазин RTP</t>
+          <t>MixMART</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>О магазине; О магазине; О магазине</t>
+          <t>ИП Заволокина Любовь Николаевна324460000039577</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-vn-pn-25-ruchka-babochka-898182832/?at=ywtAPqKGquPByoz1F0jN9PATX8ZBOwTpEWYwKtlLP4MP</t>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-dn-15-latun-rossiya-1714791213/?at=A6tGKLMvgcJMWErOuNmAyzXTDgGyvZIoBgyM5tqr9Onv</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="81" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="113" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="86" customWidth="1" min="10" max="10"/>
-    <col width="165" customWidth="1" min="11" max="11"/>
+    <col width="55" customWidth="1" min="9" max="9"/>
+    <col width="143" customWidth="1" min="10" max="10"/>
+    <col width="186" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,32 +506,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>174299737</t>
+          <t>1410869694</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Кран шаровый для воды 1/2", наружная резьба СТМ СТАНДАРТ</t>
+          <t>Шаровой кран ROMMER RBV-0001-2110315 1/2" ВН/ВН ручка рычаг</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>СТМ</t>
+          <t>ROMMER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>257</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>325</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,79 +541,2807 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>730 отзывов</t>
+          <t>826 отзывов</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+          <t>Jakko</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.41177746291623</t>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-naruzhnaya-rezba-stm-standart-174299737/?at=OgtELzo6JIvR1Z03Hm6MxPlt9kKXZNfjgQAWAckMg9rw</t>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0001-2110315-1-2-vn-vn-ruchka-rychag-1410869694/?at=w0tgEJ6K0u2VK1RiBZ68kJt9jgoB7cV8EXlYtlzpVxv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1789303180</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Кран шаровой ВР/НР 1/2" бабочка, для газа ZEGOR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ZEGOR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FEOTON</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ИП Гришин Андрей Павлович; 320623400039833</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-vr-nr-1-2-babochka-dlya-gaza-zegor-1789303180/?at=57twP58Egcw0ZvyDsrgr1knhOQJQMQFxqEJg1tx2WDlY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1085731621</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Кран шаровой с электроприводом Stahlmann 1/2F 12В</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stahlmann</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6957</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13499</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1 отзыв</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>WARM-ON.RU.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ООО "ИВС"141008, Московская область, г. Мытищи, проезд Проектируемый 5274, стр.7, помещение 4, комната 3; 041135038003506</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-s-elektroprivodom-stahlmann-1-2f-12v-1085731621/?at=WPtNLR3OzcwAvG19FjpJLPLUDwZMMASx9OqWyhAEOoM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1832759401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Шаровой кран 3/4 дюйма RTP вн/вн PN 25 латунный, ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>419 отзывов</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>УК  Волмакс</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ООО ООО "УК "ВОЛМАКС"140304, Россия, Московская Область, г Егорьевск, ул Антипова, д 48Б; 1245000092083</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-3-4-dyuyma-rtp-vn-vn-pn-25-latunnyy-ruchka-rychag-1832759401/?at=w0tgEJ6K0uQX67WPIBVEmVPcwmBmvOHANkkrnU1pvjrR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1832759739</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Шаровой кран 1 дюйм RTP вн/вн PN 25 латунный, ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>419 отзывов</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>УК  Волмакс</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ООО ООО "УК "ВОЛМАКС"140304, Россия, Московская Область, г Егорьевск, ул Антипова, д 48Б; 1245000092083</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-1-dyuym-rtp-vn-vn-pn-25-latunnyy-ruchka-rychag-1832759739/?at=6WtZ6jkzVFDLB6PzCnAEQ7Bc0L2moZhDVqJkMUA1JOJm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>368096794</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный 1/2" дюйма KOER (Чехия) DN15 вн/нар ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>72 отзыва</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ИП Филин Артур Александрович; 319619600234071</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-1-2-dyuyma-koer-chehiya-dn15-vn-nar-ruchka-babochka-368096794/?at=A6tGKL04rcYD6VxpuMEPXlEIB5WYZNFmlP76Jtm7zP3Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2106901409</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2 латунный с внутренней и наружной резьбой(2шт)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>197 отзывов</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AV-WATER</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ИП Белоус Евгений Анатольевич; 325665800094191</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-vnutrenney-i-naruzhnoy-rezboy-2sht-2106901409/?at=83tB5D31OFgXBjjGcYY8EgLt7R81p9cDrArRWSM2PXRy</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2131601156</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный ВР/НР G1/2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Кран для сантехники</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8 отзывов</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ИП Морозов П.А.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ИП Морозов Павел Александрович; 321723200073243</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-vr-nr-g1-2-2131601156/?at=QktJ1MVOBcQN2NMWC9QYY1vsM8Zn9lCZAgPOVtlKQxE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>706390912</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BUGATTI Кран шаровой, ВP, ручка - бабочка, арт.602, 1/2"</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>18 отзывов</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Магазин инженерной сантехники</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ООО ГК "АЛЬКОР"115477, Г.Москва, Москва, Кантемировская д.58,помещ.22/; 51137746659533</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/bugatti-kran-sharovoy-vp-ruchka-babochka-art-602-1-2-706390912/?at=jYtZ4KE8lFEJQ1JRs6gyz9PSx9jNDQu4KW5GBSrPWyrG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2129229507</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Кран шаровый быстрый съем ПЭ 25 х БРС Spektr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Spektr</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18 отзывов</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ТОРГСАНТЕХ</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ИП Ванесян Эдгар Дереникович; 319502700074839</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-bystryy-sem-pe-25-h-brs-spektr-2129229507/?at=k2toy8l9YF7BLJR7HNzNDqGcG7BpZmFAo1yV6hg75QN3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>822502461</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Кран шаровой, НР, флажок латунный, хромированный, PN 16, ARCO MINI, арт.02238, 1/2"</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Arco</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9 отзывов</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Магазин инженерной сантехники</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ООО ГК "АЛЬКОР"115477, Г.Москва, Москва, Кантемировская д.58,помещ.22/; 51137746659533</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-nr-flazhok-latunnyy-hromirovannyy-pn-16-arco-mini-art-02238-1-2-822502461/?at=ywtAPqDZ6uzwqNK0tmgVz62TNB2REPH8oND3Jh1ynvE9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1047009997</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кран шаровый со штуцером TIM 1/2" наружная резьба V02FM-3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>30 отзывов</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Сантех-AR</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ИП Гарсаян Армен Григорьевич; 323508100273421</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-so-shtutserom-tim-1-2-naruzhnaya-rezba-v02fm-3-1047009997/?at=K8tZyzKO8FM5Y1qzUqZovMXuRmNX44hm2qX20cOD1Om6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2118807645</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кран шаровой угловой Bugatti Miami,латунь 1/2"x1/2" (08830001)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>11 отзывов</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PROFICLIMATE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ИП Шабанов Тарлан Фархад Оглы; 324774600669992</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-uglovoy-bugatti-miami-latun-1-2-x1-2-08830001-2118807645/?at=mqtkoBXz1cNwwzJqsWDBBwjCLMmEZlSDowWz0TAm21wN</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>174299737</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Кран шаровый для воды 1/2", наружная резьба СТМ СТАНДАРТ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>СТМ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>738 отзывов</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ООО "САНТИМ-СТОЛИЦА"</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ООО САНТИМ-СТОЛИЦА117418, Г.Москва, Москва, Новочерёмушкинская, 61, э.; 41177746291623</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-dlya-vody-1-2-naruzhnaya-rezba-stm-standart-174299737/?at=K8tZyzKO8FZXDXw7Spv5pLnur9K741UZlgpPMFA0BVw3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1359745044</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" ВРхВР Veher, 1 шт латунь, ручка рычаг / кран шаровый ДУ15 латунный</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Valfex</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4 670 отзывов</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>РУСХИТ</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ООО "Р-СЕРВИС"129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140); 1227700433850</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-vrhvr-veher-1-sht-latun-ruchka-rychag-kran-sharovyy-du15-latunnyy-1359745044/?at=WPtNLR3OzcB72oYNS9508VgFoqgXVgt7Em7QDIZmoyk5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1410819084</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Кран шаровой ROMMER ВР/НР ручка рычаг 1/2 RBV-0002-2210315</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>209 отзывов</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-rommer-vr-nr-ruchka-rychag-1-2-rbv-0002-2210315-1410819084/?at=Eqtk8VyL1copy9q2hwjojDOFo4qAmKCm8N4jmC2EQgZr</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1739908107</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный угловой LD Pride 47.15.В-Н.У.Б Ду 15 Ру 40 бабочка</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LD Pride</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>132 отзыва</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ООО "Мегастройкомплекс"</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ООО "МСК"354003, Россия, Краснодарский Край, г Сочи, ул 60 лет ВЛКСМ, д; 111152366000148</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-uglovoy-ld-pride-47-15-v-n-u-b-du-15-ru-40-babochka-1739908107/?at=MZtvyMPXxfRL267OCyKzKp1fDOy78JuvvK4nrulBvkj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>900678054</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/вн PN 25 ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>839 отзывов</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ООО "ЮТАРА"140002, Московская область, г.о. Люберцы, г. Люберцы, Октябрьский пр-кт, д.; 11217700012089</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-vn-pn-25-ruchka-rychag-900678054/?at=OgtELzYn5FEzm0xPUVX85rDHvv2jl9HQOmWkksVyymWY</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1410898273</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0004-2210215 1/2" ВН/НР ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1 346 отзывов</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0004-2210215-1-2-vn-nr-ruchka-babochka-1410898273/?at=oZt6Vj9Elf0zkX3AcvGZGviV3M9D3tPgkGn6T11MqAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>579198534</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Кран шаровой 20х1/2", с внутренней резьбой, полипропиленовый, Восток, белый</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Восток</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4 отзыва</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Инженерная сантехника РУПАЙП</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ООО Рупайп603029, г. Нижний Новгород, ул. Памирская, 11, лит. АЕ; 1105258006765</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-20h1-2-s-vnutrenney-rezboy-polipropilenovyy-vostok-belyy-579198534/?at=46tR2MPgYcLBJZxqs2r2EXUAzOWWRsQB2oKqCv1oDBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>709738219</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BUGATTI Кран шаровой, мини, ВP/ВР, ручка - флажок, никелированный, арт.800, 1/2"</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>11 отзывов</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Магазин инженерной сантехники</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ООО ГК "АЛЬКОР"115477, Г.Москва, Москва, Кантемировская д.58,помещ.22/; 51137746659533</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/bugatti-kran-sharovoy-mini-vp-vr-ruchka-flazhok-nikelirovannyy-art-800-1-2-709738219/?at=w0tgEJ6K0ugNMzWkcMQoWq0tAnBG6RTMDzrkgfDGQoz7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>930425220</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ПНД Кран шаровый разъемный ф20 цанга - цанга</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TEBO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>127 отзывов</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Наш Дом</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ООО ООО "ДИСКУС-001"141142, Московская область, г Лосино-Петровский, 41-й км Щёлковского шоссе, влд; 11025006524487</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/pnd-kran-sharovyy-razemnyy-f20-tsanga-tsanga-930425220/?at=nRtrZAwvlC9vJvK3hKqgv4MU97LEOJTW3nol6iZXj0gz</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1635950619</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Кран полипропиленовый 20 шаровый 2шт</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Millennium</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>200 отзывов</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>СантехТрейд</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ИП Агабекян Овик Франклинович; 324774600060831</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-polipropilenovyy-20-sharovyy-2sht-1635950619/?at=6WtZ6jkzVFDr1qQVuZL6ENzCjVrRlAtloG57oixoROOg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>623874791</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Кран шаровой 20х1/2", с внутренней резьбой, полипропиленовый, Восток, серый</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Восток</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>14 отзывов</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Инженерная сантехника РУПАЙП</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ООО Рупайп603029, г. Нижний Новгород, ул. Памирская, 11, лит. АЕ; 1105258006765</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-20h1-2-s-vnutrenney-rezboy-polipropilenovyy-vostok-seryy-623874791/?at=QktJ1MVOBc27pXO8TPoYzD8u36DXE9C5AlXw2IQwp8OV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>1714791213</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Кран шаровый 1/2" с внутренней и наружной резьбой (2 шт), DN-15, латунь, Россия</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Галлоп</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>880</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1 709 отзывов</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1 717 отзывов</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>MixMART</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ИП Заволокина Любовь Николаевна324460000039577</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-dn-15-latun-rossiya-1714791213/?at=A6tGKLMvgcJMWErOuNmAyzXTDgGyvZIoBgyM5tqr9Onv</t>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ИП Заволокина Любовь Николаевна; 324460000039577</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-s-vnutrenney-i-naruzhnoy-rezboy-2-sht-dn-15-latun-rossiya-1714791213/?at=oZt6Vj9ElfWLl9q6ig4MzYVIDvrr5PuWQ17Y4h65wvgm</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>605993778</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Кран шаровый с американкой 1/2", внутренняя-наружная резьба, бабочка KOER KR.227</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>42 отзыва</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ИП Филин Артур Александрович; 319619600234071</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-s-amerikankoy-1-2-vnutrennyaya-naruzhnaya-rezba-babochka-koer-kr-227-605993778/?at=A6tGKL04rc8JLnxycQpqNDmFX5x0G5cDmmzV6CkNqQWz</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1655806308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Кран полипропиленовый шаровой 20 мм, белый, 10 штук</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3 208 отзывов</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ИнСан</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ИП Лыков Павел Евгеньевич; 313525034300010</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-polipropilenovyy-sharovoy-20-mm-belyy-10-shtuk-1655806308/?at=36tWg63q7uErm4K2cO5r1x2fZK9l1pTRLpYWBuRD0qZ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2106369652</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2 латунный с внутренней и наружной резьбой(2шт) Ручка-рычаг</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>197 отзывов</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>AV-WATER</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ИП Белоус Евгений Анатольевич; 325665800094191</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-latunnyy-s-vnutrenney-i-naruzhnoy-rezboy-2sht-ruchka-rychag-2106369652/?at=oZt6Vj9Elf6xxQqmCmPMZZyuDNMNgAtvZnJJ7c4BPryg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>851743970</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Кран шаровый PP-R полипропиленовый с выпускным клапаном, ручка бабочка D25 FV-PLAST AA272025000 серый</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FV Plast</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2438</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>23 отзыва</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Индивидуальный предприниматель Чучин Андрей Андреевич</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ИП Чучин Андрей Андреевич; 316280100053212</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-pp-r-polipropilenovyy-s-vypusknym-klapanom-ruchka-babochka-d25-fv-plast-851743970/?at=NOtwqDL7VclMv6mjS6wgKPVTAo58jYfO2W3r8tJ2xAGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>369437976</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Кран шаровой латунный 1" дюйм KOER (Чехия) DN25 вн/нар ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2844</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>60 отзывов</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ИП Филин Артур Александрович; 319619600234071</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-latunnyy-1-dyuym-koer-chehiya-dn25-vn-nar-ruchka-rychag-369437976/?at=qQtJyKBZLc3gvWOBTZ85w8EIX1ZgPBizEJn9zTL38QYQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>610623130</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Кран шаровый полипропиленовый PPR D32 для холодной и горячей воды, отопления (10 шт.)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AVERS ENGINEERING</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2590</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>545 отзывов</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Труба4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ООО ООО "ЮНИОН"620137, Россия, Свердловская Область, г Екатеринбург, ул Аппаратная, стр; 11196658055714</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-polipropilenovyy-ppr-d32-dlya-holodnoy-i-goryachey-vody-otopleniya-10-sht-610623130/?at=k2toy8l9YF0mRJ2ETqYBjGWh2EoyWqUG70Lg0iNJ8Lpk</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1000813850</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Кран шаровой НВ (наружно-внутренний) Bugatti Oregon 307 1/2 бабочка</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>222 отзыва</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ГК ЮДИС</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ИП Авалян Армен Жораи; 320344300037267</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-nv-naruzhno-vnutrenniy-bugatti-oregon-307-1-2-babochka-1000813850/?at=nRtrZAwvlCv4DLx7FJqgWlzH6vEV23Igx5p4yilkvBMq</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1607701734</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Кран шаровой МИНИ VIEIR 1/2" ВН/ВН</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>VIEIR</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>186 отзывов</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ДОМ</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ИП Барышев Фрол Юрьевич; 324237500063459</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-mini-vieir-1-2-vn-vn-1607701734/?at=GRt2NKnkWiYlPvnycrwgJx8SmzG9YyCv8q063UPJMG8w</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>898182832</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/вн PN 25 ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>933 отзыва</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ООО "ЮТАРА"140002, Московская область, г.о. Люберцы, г. Люберцы, Октябрьский пр-кт, д.; 11217700012089</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-vn-pn-25-ruchka-babochka-898182832/?at=6WtZ6jkzVFL4E2qzCgvxr5GHOAyE9mTw1yBOAHooE131</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>813399652</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Кран шаровой Джилекс для системы водоснабжения 32х32 ПНД</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Джилекс</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>229 отзывов</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Power-water.ru</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ООО САРМАТ141851, Московская область, Дмитровский район, д.никульское, д. Никульское, 95/; 31165007051000</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-dzhileks-dlya-sistemy-vodosnabzheniya-32h32-pnd-813399652/?at=MZtvyMPXxfD59XJGUwKYOlJTZ8Jm5fzzvRWBtMGMWWw</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1515108026</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Кран шаровой угловой для смесителей HP 1/2"-1/2"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>VIEIR</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>517 отзывов</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ДОМ</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ИП Барышев Фрол Юрьевич; 324237500063459</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-uglovoy-dlya-smesiteley-hp-1-2-1-2-1515108026/?at=46tR2MPgYcL2rN73Uk9qnLEsxW8P90TArGr9S8YEEZk</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>605997966</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Кран шаровый с американкой 3/4", внутренняя-наружная резьба, бабочка KOER KR.227</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KOER</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>42 отзыва</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Сантехника161.рф</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ИП Филин Артур Александрович; 319619600234071</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-s-amerikankoy-3-4-vnutrennyaya-naruzhnaya-rezba-babochka-koer-kr-227-605997966/?at=79tnX4MlEI2pm7YpH5PXNzsolxmv4F0XpVMNh4gnnRg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1714797570</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Кран шаровой 1/2" ручка ВхН ГАЛЛОП DN-15, латунь, Россия</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Галлоп</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1 717 отзывов</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>MixMART</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ИП Заволокина Любовь Николаевна; 324460000039577</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-1-2-ruchka-vhn-gallop-dn-15-latun-rossiya-1714797570/?at=08tYXqvVJcqKy9GWT8w7Z8nHz430JPIX3Q0AQCRRxEWB</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1656679467</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Кран шаровой 1/4, флажковый (внутренняя резьба-внутренняя резьба)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>АвтоК</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>225 отзывов</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>АвтоК</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ИП Васильева Марина Николаевна; 323547600188899</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-1-4-flazhkovyy-vnutrennyaya-rezba-vnutrennyaya-rezba-1656679467/?at=x6tP5n8kmTV8LDmpsgVLDlyTYVJJ5Jh7DAVGQH46l4P3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>975487956</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Кран шаровый резьбовой 1/2" м/м из АБС - пластика</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MAK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>417 отзывов</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Бимарт</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ООО "Вега-М"350900, Краснодарский край, Краснодар, Ткачева,; 741202300041338</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-rezbovoy-1-2-m-m-iz-abs-plastika-975487956/?at=99trWLnQRC1P1ZR6CrKZ4Gzij5ZBzfpr2Gklh6wxA9r</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1359745002</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Кран шаровый 1/2" НРхВР Veher, 1 шт латунь, ручка бабочка / кран шаровый латунный</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>VEHER</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>939 отзывов</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>РУСХИТ</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ООО "Р-СЕРВИС"129226, г. Москва, ул. Сельскохозяйственная, д.11, корп.3, эт.1, пом.II, ком.1 (РМ140); 1227700433850</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-1-2-nrhvr-veher-1-sht-latun-ruchka-babochka-kran-sharovyy-latunnyy-1359745002/?at=NOtwqDL7VcVX3ZXNcLN0J8qC94Xrk2sjzpjlGc4XAONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1991838108</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Кран шаровой (шаровый) никелированный полнопроходной, вн/вн резьба, ручка-рычаг, 1 дюйм, DN25, латунь, Беларусь</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Цветлит</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>8 отзывов</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Эффективный Инжиниринг</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ООО "Эффективный Инжиниринг"г. Москва, вн.тер.г. муниципальный округ Даниловский, ул Ленинская Слобода, д. 26, стр. 28, офис; 461027739739026</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-sharovyy-nikelirovannyy-polnoprohodnoy-vn-vn-rezba-ruchka-rychag-1-dyuym-dn25-1991838108/?at=QktJ1MVOBcPNJxy0tvnmNmTA9648ECoZxxwWhZAKjBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1309408987</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Кран шаровый Bugatti (306) 1/2" НВ ручка</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Bugatti Valvosanitaria</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>59 отзывов</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>МИР САНТЕХНИКИ</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ИП Калантарян Лиана Жораевна; 313344321400080</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-bugatti-306-1-2-nv-ruchka-1309408987/?at=83tB5D31OFWJXZQPi4o8rykCMVQXZyuLjDOnqCvGk5z5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1410819187</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0003-2110215 1/2" ВН/ВН ручка бабочка</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>469 отзывов</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0003-2110215-1-2-vn-vn-ruchka-babochka-1410819187/?at=w0tgEJ6K0uzz7wmkH0Kx78oCJprRZAUqo7ZzYunZNXX6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1410819107</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Шаровой кран ROMMER RBV-0002-2210320 3/4" ВН/НР ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>261 отзыв</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovoy-kran-rommer-rbv-0002-2210320-3-4-vn-nr-ruchka-rychag-1410819107/?at=w0tgEJ6K0uV3rl7mHDnxAqrslp5ynJHVr0QW2ipYxWZo</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1968173288</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>комплект угловых кранов 1/2 для подключения гибкой подводки смесителя или водонагревателя (2 шт.)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Краны</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2 отзыва</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Душевое Удовольствие</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ООО ООО "ЮАНЬ ЧЖЭН ЭЛЕКТРОННАЯ КОММЕРЦИЯ"143444, Россия, Московская Область, Красногорск, Геологов, 2, 4,; 221245000067311</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-uglovyh-kranov-1-2-dlya-podklyucheniya-gibkoy-podvodki-smesitelya-ili-vodonagrevatelya-1968173288/?at=z6tOYQD68cY5DJGKH7lElX2SNYKMOmSQx1MnWCxZZozG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1970433574</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Кран водоразборный садовый из нержавеющей стали 1/2" STEMIX с штуцером для подключения поливочного шланга</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>STEMIX</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>91 отзыв</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>QValD</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ИП Валов Дмитрий Геннадьевич; 324619600027962</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-vodorazbornyy-sadovyy-iz-nerzhaveyushchey-stali-1-2-stemix-s-shtutserom-dlya-podklyucheniya-1970433574/?at=A6tGKL04rcO3M408hxrBDWksGDAAONc5RNxLwCX1EpnV</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1410871617</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Кран шаровой ROMMER угловой с американкой ВР/НР ручка бабочка 1/2 RBV-0006-2610215</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ROMMER</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>494 отзыва</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Jakko</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ООО ООО "ТЕХСТРОЙТОРГ"142032, Россия, Московская Область, г Домодедово, Сиреневая аллея, 1, д 1А, 3 ком.; 11235000056422</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovoy-rommer-uglovoy-s-amerikankoy-vr-nr-ruchka-babochka-1-2-rbv-0006-2610215-1410871617/?at=WPtNLR3OzcXANElOi3OWOj9sxlko6Osxy8AGnFRppxAk</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>898187729</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Шаровый кран 1/2 дюйма RTP шаровой латунный вн/нар PN 25 ручка рычаг</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RTP</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>935 отзывов</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Официальный магазин RTP</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ООО "ЮТАРА"140002, Московская область, г.о. Люберцы, г. Люберцы, Октябрьский пр-кт, д.; 11217700012089</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sharovyy-kran-1-2-dyuyma-rtp-sharovoy-latunnyy-vn-nar-pn-25-ruchka-rychag-898187729/?at=DqtDLNpqjTozv57luqVxE1YcpYvMEAUzPAKw2FqBo6jV</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1052569770</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Кран шаровый 3/4 ВР/НР ручка рычаг Tim</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>45 отзывов</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Сантех-AR</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ИП Гарсаян Армен Григорьевич; 323508100273421</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kran-sharovyy-3-4-vr-nr-ruchka-rychag-tim-1052569770/?at=nRtrZAwvlC9pDw49F4Jw4NPfmM1pAPco5Q9JXc0Xzl7z</t>
         </is>
       </c>
     </row>
